--- a/tradept/Excel/Localization/Main/english/D地点列表_Places_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/D地点列表_Places_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\sands-of-salzaar-traducao-portugues-brasileiro\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B0DA3-3F11-452C-AE6B-1B9D5F4E83C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5943B7F-40F5-4409-BF90-F6379CBA55A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>雪岭镇</t>
   </si>
   <si>
-    <t>Snowridge</t>
-  </si>
-  <si>
     <t>冰谷</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>沙风镇</t>
   </si>
   <si>
-    <t>Dunestorm</t>
-  </si>
-  <si>
     <t>苦泉镇</t>
   </si>
   <si>
@@ -409,43 +403,64 @@
     <t>炙风镇</t>
   </si>
   <si>
-    <t>Bazar das Colinas Meia-Lua</t>
+    <t>Fortaleza de Pedrarrubra</t>
+  </si>
+  <si>
+    <t>Bazar das Colinas da Meia-Lua</t>
   </si>
   <si>
     <t>Bazar Dourado</t>
   </si>
   <si>
-    <t>Vale da Geada</t>
+    <t>Fortaleza de Qebui</t>
+  </si>
+  <si>
+    <t>Crista Nevada</t>
+  </si>
+  <si>
+    <t>Vale Gélido</t>
   </si>
   <si>
     <t>Cidade de Cotta</t>
   </si>
   <si>
-    <t>Cidade de Amaranth</t>
-  </si>
-  <si>
-    <t>Vila Khamsin</t>
-  </si>
-  <si>
-    <t>Posto Avançado da Rocha Oeste</t>
-  </si>
-  <si>
-    <t>Vila Adobe</t>
-  </si>
-  <si>
-    <t>Vila Papyriduo</t>
-  </si>
-  <si>
-    <t>Posto Avançado da Rocha Norte</t>
-  </si>
-  <si>
-    <t>Vila da Rocha Prismática</t>
-  </si>
-  <si>
-    <t>Vila Gelding</t>
-  </si>
-  <si>
-    <t>Acampamento Ember</t>
+    <t>Rochedo Tríptico</t>
+  </si>
+  <si>
+    <t>Cidade Amarante</t>
+  </si>
+  <si>
+    <t>Tempestade de Dunas</t>
+  </si>
+  <si>
+    <t>Fontes Sombrias</t>
+  </si>
+  <si>
+    <t>Bazar do Sino de Camelo</t>
+  </si>
+  <si>
+    <t>Aldeia Khamsin</t>
+  </si>
+  <si>
+    <t>Posto Avançado do Rochedo Oeste</t>
+  </si>
+  <si>
+    <t>Aldeia de Adobe</t>
+  </si>
+  <si>
+    <t>Aldeia Papyriduo</t>
+  </si>
+  <si>
+    <t>Posto Avançado do Rochedo Norte</t>
+  </si>
+  <si>
+    <t>Aldeia do Rochedo Prismático</t>
+  </si>
+  <si>
+    <t>Aldeia dos Garanhões</t>
+  </si>
+  <si>
+    <t>Acampamento da Brasa</t>
   </si>
   <si>
     <t>Acampamento do Precipício</t>
@@ -454,64 +469,49 @@
     <t>Porto Norte</t>
   </si>
   <si>
-    <t>Vila Muftaraq</t>
-  </si>
-  <si>
-    <t>Vila Ivory</t>
-  </si>
-  <si>
-    <t>Vila Sandedge</t>
-  </si>
-  <si>
-    <t>Vila Ocre</t>
-  </si>
-  <si>
-    <t>Vila Nebulosa</t>
-  </si>
-  <si>
-    <t>Fontes Secas</t>
-  </si>
-  <si>
-    <t>Fortaleza de Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>Fortaleza Qebui</t>
-  </si>
-  <si>
-    <t>Rocha Tríptica</t>
-  </si>
-  <si>
-    <t>Bazar Sino do Camelo</t>
-  </si>
-  <si>
-    <t>Vila Escondida</t>
-  </si>
-  <si>
-    <t>Vila da Madeira de Cedro</t>
-  </si>
-  <si>
-    <t>Vila dos Penhasco do Sul</t>
-  </si>
-  <si>
-    <t>Vila Calcária</t>
-  </si>
-  <si>
-    <t>Vila das Multidões</t>
-  </si>
-  <si>
-    <t>Vila do Coração de Prata</t>
-  </si>
-  <si>
-    <t>Vila Presa de Lobo</t>
-  </si>
-  <si>
-    <t>Vila das Fontes Termais</t>
-  </si>
-  <si>
-    <t>Vila Mahjur</t>
-  </si>
-  <si>
-    <t>Vila do Oásis</t>
+    <t>Aldeia Muftaraq</t>
+  </si>
+  <si>
+    <t>Aldeia Oculta</t>
+  </si>
+  <si>
+    <t>Aldeia Marfim</t>
+  </si>
+  <si>
+    <t>Aldeia Beira-Areia</t>
+  </si>
+  <si>
+    <t>Aldeia Ocre</t>
+  </si>
+  <si>
+    <t>Aldeia de Cedro</t>
+  </si>
+  <si>
+    <t>Aldeia Penhasco Sul</t>
+  </si>
+  <si>
+    <t>Aldeia Enevoada</t>
+  </si>
+  <si>
+    <t>Aldeia do Calcário</t>
+  </si>
+  <si>
+    <t>Aldeia dos Corvos</t>
+  </si>
+  <si>
+    <t>Aldeia Coração de Prata</t>
+  </si>
+  <si>
+    <t>Aldeia Presa de Lobo</t>
+  </si>
+  <si>
+    <t>Aldeia das Termas</t>
+  </si>
+  <si>
+    <t>Aldeia Mahjur</t>
+  </si>
+  <si>
+    <t>Oásis de Ilus</t>
   </si>
   <si>
     <t>Acampamento Bactriano</t>
@@ -523,28 +523,28 @@
     <t>Acampamento Sago</t>
   </si>
   <si>
-    <t>Vila Esmeralda</t>
+    <t>Aldeia Esmeralda</t>
   </si>
   <si>
     <t>Acampamento Argil</t>
   </si>
   <si>
-    <t>Vila Bosque da Névoa</t>
-  </si>
-  <si>
-    <t>Vila Ebon</t>
+    <t>Aldeia Bosque Enevoado</t>
+  </si>
+  <si>
+    <t>Aldeia Ébano</t>
   </si>
   <si>
     <t>Acampamento Harras</t>
   </si>
   <si>
-    <t>Vila do Pântano Negro</t>
-  </si>
-  <si>
-    <t>Vila Laketon</t>
-  </si>
-  <si>
-    <t>Mina da Pedra Vermelha Abandonada</t>
+    <t>Aldeia do Pântano Negro</t>
+  </si>
+  <si>
+    <t>Aldeia Beira-Lago</t>
+  </si>
+  <si>
+    <t>Mina Abandonada de Pedrarrubra</t>
   </si>
   <si>
     <t>Oficina de Cerâmica</t>
@@ -556,22 +556,22 @@
     <t>Esconderijo Secreto</t>
   </si>
   <si>
-    <t>Vale Sirocco</t>
-  </si>
-  <si>
-    <t>Ilusão da Floresta</t>
+    <t>Vale do Siroco</t>
+  </si>
+  <si>
+    <t>Floresta Ilusória</t>
   </si>
   <si>
     <t>Cavernas de Agadir</t>
   </si>
   <si>
-    <t>Cavernas de Neve</t>
-  </si>
-  <si>
-    <t>Cavernas Ritualísticas</t>
-  </si>
-  <si>
-    <t>Palácio Arbor</t>
+    <t>Cavernas Geladas</t>
+  </si>
+  <si>
+    <t>Cavernas do Ritual</t>
+  </si>
+  <si>
+    <t>Palácio das Árvores</t>
   </si>
   <si>
     <t>Cavernas de Ossos</t>
@@ -580,19 +580,19 @@
     <t>Vazio de Lava Pāhoehoe</t>
   </si>
   <si>
-    <t>Formação do Gigante de Zagros</t>
+    <t>Formação Gigante de Zagros</t>
   </si>
   <si>
     <t>Cavernas de Fleur</t>
   </si>
   <si>
-    <t>Caverna da Viúva-Negra</t>
-  </si>
-  <si>
-    <t>Torre Torcida</t>
-  </si>
-  <si>
-    <t>Covil da Serpente Quente</t>
+    <t>Caverna da Viúva</t>
+  </si>
+  <si>
+    <t>Torre Retorcida</t>
+  </si>
+  <si>
+    <t>Covil da Serpente Ardente</t>
   </si>
   <si>
     <t>Espelho Mágico</t>
@@ -610,10 +610,10 @@
     <t>Forja de Calcário</t>
   </si>
   <si>
-    <t>Madeira Morta</t>
-  </si>
-  <si>
-    <t>Fortaleza Escarlate</t>
+    <t>Lenhagem Morta</t>
+  </si>
+  <si>
+    <t>Forte Escarlate</t>
   </si>
   <si>
     <t>Cidade de Levanto</t>
@@ -1166,15 +1166,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
@@ -1196,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1207,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1218,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1240,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1251,323 +1249,323 @@
         <v>9</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="22.5">
       <c r="A18" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22.5">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22.5">
       <c r="A21" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="22.5">
       <c r="A22" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22.5">
       <c r="A23" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="22.5">
       <c r="A24" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="22.5">
       <c r="A25" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="22.5">
       <c r="A26" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="22.5">
       <c r="A27" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="22.5">
       <c r="A28" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="22.5">
       <c r="A29" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="22.5">
       <c r="A30" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="22.5">
       <c r="A31" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5">
       <c r="A32" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="22.5">
       <c r="A33" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="22.5">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>157</v>
@@ -1575,10 +1573,10 @@
     </row>
     <row r="37" spans="1:3" ht="22.5">
       <c r="A37" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>158</v>
@@ -1586,10 +1584,10 @@
     </row>
     <row r="38" spans="1:3" ht="22.5">
       <c r="A38" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>159</v>
@@ -1597,10 +1595,10 @@
     </row>
     <row r="39" spans="1:3" ht="22.5">
       <c r="A39" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>160</v>
@@ -1608,10 +1606,10 @@
     </row>
     <row r="40" spans="1:3" ht="22.5">
       <c r="A40" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>161</v>
@@ -1619,10 +1617,10 @@
     </row>
     <row r="41" spans="1:3" ht="22.5">
       <c r="A41" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>162</v>
@@ -1630,10 +1628,10 @@
     </row>
     <row r="42" spans="1:3" ht="22.5">
       <c r="A42" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>163</v>
@@ -1641,10 +1639,10 @@
     </row>
     <row r="43" spans="1:3" ht="22.5">
       <c r="A43" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>164</v>
@@ -1652,10 +1650,10 @@
     </row>
     <row r="44" spans="1:3" ht="22.5">
       <c r="A44" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>165</v>
@@ -1663,10 +1661,10 @@
     </row>
     <row r="45" spans="1:3" ht="22.5">
       <c r="A45" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>166</v>
@@ -1674,10 +1672,10 @@
     </row>
     <row r="46" spans="1:3" ht="22.5">
       <c r="A46" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>167</v>
@@ -1685,10 +1683,10 @@
     </row>
     <row r="47" spans="1:3" ht="22.5">
       <c r="A47" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>168</v>
@@ -1696,10 +1694,10 @@
     </row>
     <row r="48" spans="1:3" ht="22.5">
       <c r="A48" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>169</v>
@@ -1707,10 +1705,10 @@
     </row>
     <row r="49" spans="1:3" ht="22.5">
       <c r="A49" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>170</v>
@@ -1718,10 +1716,10 @@
     </row>
     <row r="50" spans="1:3" ht="22.5">
       <c r="A50" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>171</v>
@@ -1729,10 +1727,10 @@
     </row>
     <row r="51" spans="1:3" ht="22.5">
       <c r="A51" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>172</v>
@@ -1740,10 +1738,10 @@
     </row>
     <row r="52" spans="1:3" ht="22.5">
       <c r="A52" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>173</v>
@@ -1751,10 +1749,10 @@
     </row>
     <row r="53" spans="1:3" ht="22.5">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>174</v>
@@ -1762,10 +1760,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>175</v>
@@ -1773,10 +1771,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>176</v>
@@ -1784,10 +1782,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>177</v>
@@ -1795,10 +1793,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>178</v>
@@ -1806,10 +1804,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>179</v>
@@ -1817,10 +1815,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>180</v>
@@ -1828,10 +1826,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>181</v>
@@ -1839,10 +1837,10 @@
     </row>
     <row r="61" spans="1:3" ht="22.5">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>182</v>
@@ -1850,10 +1848,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>183</v>
@@ -1861,10 +1859,10 @@
     </row>
     <row r="63" spans="1:3" ht="22.5">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>184</v>
@@ -1872,10 +1870,10 @@
     </row>
     <row r="64" spans="1:3" ht="22.5">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>185</v>
@@ -1883,10 +1881,10 @@
     </row>
     <row r="65" spans="1:3" ht="22.5">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>186</v>
@@ -1894,10 +1892,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>187</v>
@@ -1905,10 +1903,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>188</v>
@@ -1916,10 +1914,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>189</v>
@@ -1927,10 +1925,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>190</v>
@@ -1938,10 +1936,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>191</v>
@@ -1949,10 +1947,10 @@
     </row>
     <row r="71" spans="1:3" ht="22.5">
       <c r="A71" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>192</v>
@@ -1960,32 +1958,32 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>193</v>
@@ -1993,10 +1991,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>194</v>
@@ -2004,10 +2002,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>195</v>
@@ -2015,10 +2013,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>196</v>
@@ -2026,10 +2024,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>197</v>
@@ -2037,21 +2035,21 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>198</v>
